--- a/data/financial_statements/soci/NDAQ.xlsx
+++ b/data/financial_statements/soci/NDAQ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,872 +593,893 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1582000000</v>
+      </c>
+      <c r="C2">
         <v>1557000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1552000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1535000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1466000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1357000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1412000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1651000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1461000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1413000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1398000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1353000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1062000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1096000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1061000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1039000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1135000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>964000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1027000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1151000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1020000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>965000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>994000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>969000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>973000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>929000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>897000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>905000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>867000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>871000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>807000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>858000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>919000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>818000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>865000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>898000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>848000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>805000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>814000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>744000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0791</v>
+      </c>
+      <c r="C3">
         <v>0.1474</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0992</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0703</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0034</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.0396</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.01</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.2203</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3757</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2892</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.3176</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.3022</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0643</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1369</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0331</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.0973</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1127</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-0.001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0332</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1878</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0483</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0388</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1081</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0707</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.1223</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.06660000000000001</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.1115</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0548</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0566</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0648</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.06710000000000001</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0445</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0837</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0161</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.06270000000000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.207</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.1232</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0791</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0012</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0746</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>676000000</v>
+      </c>
+      <c r="C4">
         <v>667000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>659000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>643000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>581000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>519000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>566000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>800000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>673000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>698000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>699000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>652000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>416000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>464000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>438000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>405000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>490000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>364000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>412000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>485000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>389000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>362000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>398000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>388000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>375000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>344000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>338000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>371000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>331000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>342000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>289000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>351000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>401000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>321000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>342000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>369000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>328000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>299000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>363000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>326000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>906000000</v>
+      </c>
+      <c r="C5">
         <v>890000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>893000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>892000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>885000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>838000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>846000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>851000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>788000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>715000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>699000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>701000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>646000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>632000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>623000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>634000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>645000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>600000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>615000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>666000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>631000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>603000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>596000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>581000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>598000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>585000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>559000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>534000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>536000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>529000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>518000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>507000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>518000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>497000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>523000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>529000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>520000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>506000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>451000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>418000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>438000000</v>
+      </c>
+      <c r="C6">
         <v>415000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>404000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>405000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>444000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>402000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>369000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>368000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>384000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>326000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>317000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>359000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>324000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>319000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>314000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>302000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>339000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>295000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>303000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>330000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>317000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>291000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>296000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>284000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>324000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>294000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>276000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>259000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>240000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>252000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>262000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>296000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>279000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>251000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>283000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>282000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>278000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>271000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>239000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>222000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>349000000</v>
+      </c>
+      <c r="C7">
         <v>398000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>412000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>405000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>344000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>356000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>376000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>365000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>318000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>326000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>315000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>275000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>260000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>226000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>256000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>275000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>240000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>246000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>269000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>273000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>241000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>262000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>242000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>246000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>210000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>233000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>174000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>219000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>245000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>231000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>217000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>27000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>172000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>207000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>191000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>184000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>237000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>202000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>159000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>90000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>32000000</v>
+        <v>33000000</v>
       </c>
       <c r="C8">
         <v>32000000</v>
@@ -1353,76 +1488,76 @@
         <v>32000000</v>
       </c>
       <c r="E8">
+        <v>32000000</v>
+      </c>
+      <c r="F8">
         <v>30000000</v>
-      </c>
-      <c r="F8">
-        <v>33000000</v>
       </c>
       <c r="G8">
         <v>33000000</v>
       </c>
       <c r="H8">
+        <v>33000000</v>
+      </c>
+      <c r="I8">
         <v>29000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>25000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>24000000</v>
-      </c>
-      <c r="K8">
-        <v>26000000</v>
       </c>
       <c r="L8">
         <v>26000000</v>
       </c>
       <c r="M8">
+        <v>26000000</v>
+      </c>
+      <c r="N8">
         <v>27000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>29000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>31000000</v>
-      </c>
-      <c r="P8">
-        <v>37000000</v>
       </c>
       <c r="Q8">
         <v>37000000</v>
       </c>
       <c r="R8">
+        <v>37000000</v>
+      </c>
+      <c r="S8">
         <v>38000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>37000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>38000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>36000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>34000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>36000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>37000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>38000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>37000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>32000000</v>
-      </c>
-      <c r="AB8">
-        <v>28000000</v>
       </c>
       <c r="AC8">
         <v>28000000</v>
@@ -1431,2665 +1566,2722 @@
         <v>28000000</v>
       </c>
       <c r="AE8">
+        <v>28000000</v>
+      </c>
+      <c r="AF8">
         <v>27000000</v>
-      </c>
-      <c r="AF8">
-        <v>28000000</v>
       </c>
       <c r="AG8">
         <v>28000000</v>
       </c>
       <c r="AH8">
+        <v>28000000</v>
+      </c>
+      <c r="AI8">
         <v>29000000</v>
-      </c>
-      <c r="AI8">
-        <v>30000000</v>
       </c>
       <c r="AJ8">
         <v>30000000</v>
       </c>
       <c r="AK8">
+        <v>30000000</v>
+      </c>
+      <c r="AL8">
         <v>29000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>32000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>26000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>24000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-27000000</v>
+      </c>
+      <c r="C9">
         <v>-16000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-15000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-31000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-30000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>15000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>78000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>30000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-52000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>31000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-2000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-8000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-11000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-17000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>38000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>88000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-37000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>19000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-34000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-29000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-28000000</v>
-      </c>
-      <c r="W9">
-        <v>-31000000</v>
       </c>
       <c r="X9">
         <v>-31000000</v>
       </c>
       <c r="Y9">
+        <v>-31000000</v>
+      </c>
+      <c r="Z9">
         <v>-617000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-34000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-28000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-24000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-27000000</v>
-      </c>
-      <c r="AD9">
-        <v>-25000000</v>
       </c>
       <c r="AE9">
         <v>-25000000</v>
       </c>
       <c r="AF9">
+        <v>-25000000</v>
+      </c>
+      <c r="AG9">
         <v>-13000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-75000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-28000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-29000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-28000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-2000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-31000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-24000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-31000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>322000000</v>
+      </c>
+      <c r="C10">
         <v>382000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>397000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>374000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>314000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>371000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>454000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>395000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>266000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>357000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>316000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>273000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>252000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>215000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>239000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>313000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>328000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>209000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>288000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>239000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>212000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>234000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>211000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>215000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-407000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>199000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>146000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>195000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>218000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>206000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>192000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>14000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>97000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>179000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>162000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>156000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>235000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>171000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>135000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>59000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>82000000</v>
+      </c>
+      <c r="C11">
         <v>88000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>90000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>91000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>54000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>83000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>113000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>97000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>41000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>93000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>75000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>70000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>49000000</v>
-      </c>
-      <c r="N11">
-        <v>65000000</v>
       </c>
       <c r="O11">
         <v>65000000</v>
       </c>
       <c r="P11">
+        <v>65000000</v>
+      </c>
+      <c r="Q11">
         <v>66000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>372000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>46000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>126000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>62000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-33000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>64000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>65000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>47000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-180000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>68000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>76000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>63000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>70000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>68000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>60000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>5000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>11000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>56000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>61000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>53000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>94000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>58000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>47000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>17000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>240000000</v>
+      </c>
+      <c r="C12">
         <v>294000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>307000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>283000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>260000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>288000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>341000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>298000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>225000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>264000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>241000000</v>
-      </c>
-      <c r="L12">
-        <v>203000000</v>
       </c>
       <c r="M12">
         <v>203000000</v>
       </c>
       <c r="N12">
+        <v>203000000</v>
+      </c>
+      <c r="O12">
         <v>150000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>174000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>247000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-44000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>163000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>162000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>177000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>245000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>170000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>146000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>168000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-227000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>131000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>70000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>132000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>148000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>138000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>132000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>9000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>86000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>123000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>101000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>103000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>141000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>113000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>88000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>42000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13">
         <v>-123000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
         <v>-1000000</v>
       </c>
-      <c r="AE14">
+      <c r="E14">
         <v>-1000000</v>
       </c>
-      <c r="AG14">
+      <c r="AF14">
+        <v>-1000000</v>
+      </c>
+      <c r="AH14">
         <v>-124000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>123000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>241000000</v>
+      </c>
+      <c r="C15">
         <v>294000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>307000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>284000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>260000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>288000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>341000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>298000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>225000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>264000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>241000000</v>
-      </c>
-      <c r="L15">
-        <v>203000000</v>
       </c>
       <c r="M15">
         <v>203000000</v>
       </c>
       <c r="N15">
+        <v>203000000</v>
+      </c>
+      <c r="O15">
         <v>150000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>174000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>247000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-44000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>163000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>162000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>177000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>245000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>170000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>146000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>168000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-227000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>131000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>70000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>132000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>148000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>138000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>133000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>9000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>87000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>123000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>101000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>103000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>142000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>113000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>88000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>42000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>0.6</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.6233</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.5733</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.5167</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.5733</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.6933</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.6032999999999999</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.4533</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.5367</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.49</v>
-      </c>
-      <c r="L16">
-        <v>0.41</v>
       </c>
       <c r="M16">
         <v>0.41</v>
       </c>
       <c r="N16">
+        <v>0.41</v>
+      </c>
+      <c r="O16">
         <v>0.3033</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.35</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.4967</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-0.09</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.33</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.3267</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.3533</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.49</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.3433</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.2967</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.34</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-0.45</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.2633</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.14</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.2667</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.3</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.2767</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.2633</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.0167</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.1733</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.2433</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.2</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.2033</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.28</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.2267</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.1767</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.0867</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>0.59</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.6167</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.5667</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.51</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.5633</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.6833</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.5933</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.4467</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.5266999999999999</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.4833</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.4067</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.4033</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.3</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.3467</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.4933</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-0.09</v>
-      </c>
-      <c r="R17">
-        <v>0.3233</v>
       </c>
       <c r="S17">
         <v>0.3233</v>
       </c>
       <c r="T17">
+        <v>0.3233</v>
+      </c>
+      <c r="U17">
         <v>0.35</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.4833</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.3367</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.29</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.33</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-0.45</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.2567</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.14</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.26</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.2933</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.2667</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.2567</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.0167</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.1667</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.2367</v>
-      </c>
-      <c r="AI17">
-        <v>0.1967</v>
       </c>
       <c r="AJ17">
         <v>0.1967</v>
       </c>
       <c r="AK17">
+        <v>0.1967</v>
+      </c>
+      <c r="AL17">
         <v>0.27</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.22</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.1733</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.0833</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>491300000</v>
+      </c>
+      <c r="C18">
         <v>491229000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>492234000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>495144000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>497697000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>503077000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>492258000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>494130000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>493245000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>492513000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>492297000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>494592000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>494796000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>492996000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>496788000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>496032000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>496047000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>492681000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>497244000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>500766000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>499092000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>500085000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>496248000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>499419000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>495546000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>496818000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>495057000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>492846000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>501856300</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>500712000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>506154000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>506958000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>506781000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>505764000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>508014000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>508788000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>500796000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>502014000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>499116000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>497109000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>497000000</v>
+      </c>
+      <c r="C19">
         <v>496339000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>496581000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>501744000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>505089000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>510540000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>499314000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>501276000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>500712000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>502476000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>498219000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>500331000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>500910000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>501090000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>501123000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>501081000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>503073000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>501873000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>502200000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>506979000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>508755000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>510006000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>505464000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>510741000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>506403000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>508491000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>504618000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>505104000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>513849000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>514356000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>516426000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>518031000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>519057000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>519471000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>517419000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>521001000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>513798000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>516312000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>510429000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>508986000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.5727</v>
+      </c>
+      <c r="C20">
         <v>0.5716</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.5754</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.5810999999999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.6037</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.6175</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.5992</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.5154</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.5394</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.506</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.5</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.5181</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.6083</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.5766</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.5872000000000001</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.6102</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.5683</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.6224</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.5988</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.5786</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.6186</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.6249</v>
-      </c>
-      <c r="W20">
-        <v>0.5996</v>
       </c>
       <c r="X20">
         <v>0.5996</v>
       </c>
       <c r="Y20">
+        <v>0.5996</v>
+      </c>
+      <c r="Z20">
         <v>0.6146</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.6297</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.6232</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.5901</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.6182</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.6073</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.6419</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.5909</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.5637</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.6076</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.6046</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.5891</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.6132</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.6286</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.5541</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.5618</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.2206</v>
+      </c>
+      <c r="C21">
         <v>0.2556</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2655</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2638</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2347</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.2623</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2663</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2211</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2177</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2307</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.2253</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.2033</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2448</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2062</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2413</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2647</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2115</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2552</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2619</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2372</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.2363</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2715</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2435</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2539</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2158</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2508</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.194</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.242</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2826</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2652</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2689</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.0315</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1872</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2531</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2208</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2049</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.2795</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2509</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.1953</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.121</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.2035</v>
+      </c>
+      <c r="C22">
         <v>0.2453</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2558</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2436</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2142</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2734</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.3215</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2392</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1821</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2527</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.226</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.2018</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2373</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.1962</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.2253</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.3013</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.289</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2168</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2804</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2076</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2078</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2425</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2123</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2219</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-0.4183</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2142</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1628</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2155</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2514</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2365</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2379</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.0163</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1055</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2188</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1873</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1737</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2771</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2124</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1658</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.0793</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1523</v>
+      </c>
+      <c r="C23">
         <v>0.1888</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.1978</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.185</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1774</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.2122</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.2415</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1805</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.154</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1868</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1724</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.15</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1911</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1369</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.164</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.2377</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-0.0388</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1691</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1577</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1538</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.2402</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1762</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1469</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1734</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-0.2333</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.141</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.078</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1459</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1707</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1584</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1648</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.0105</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.09470000000000001</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1504</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1168</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1147</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1675</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.1404</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1081</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.0565</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>461000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>477000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>472000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>425000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>422000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>444000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>428000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>371000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>377000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>365000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>323000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>307000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>273000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>304000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>323000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>291000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>299000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>322000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>326000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>289000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>310000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>289000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>291000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>255000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>279000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>215000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>257000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>281000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>266000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>250000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>61000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>205000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>242000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>225000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>219000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>271000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>235000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>187000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>117000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>349000000</v>
+      </c>
+      <c r="C25">
         <v>398000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>412000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>405000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>344000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>356000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>376000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>365000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>318000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>326000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>315000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>275000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>260000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>226000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>256000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>275000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>240000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>246000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>269000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>273000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>241000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>262000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>242000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>246000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>210000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>233000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>174000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>219000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>245000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>231000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>217000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>27000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>172000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>207000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>191000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>184000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>237000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>202000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>159000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>90000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>240000000</v>
+      </c>
+      <c r="C26">
         <v>294000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>307000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>283000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>260000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>288000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>341000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>298000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>225000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>264000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>241000000</v>
-      </c>
-      <c r="L26">
-        <v>203000000</v>
       </c>
       <c r="M26">
         <v>203000000</v>
       </c>
       <c r="N26">
+        <v>203000000</v>
+      </c>
+      <c r="O26">
         <v>150000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>174000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>247000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-44000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>163000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>162000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>177000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>245000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>170000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>146000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>168000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-227000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>131000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>70000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>132000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>148000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>138000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>132000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>9000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>86000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>123000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>101000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>103000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>141000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>113000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>88000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>42000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>240000000</v>
+      </c>
+      <c r="C27">
         <v>294000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>307000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>283000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>260000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>288000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>341000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>298000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>225000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>264000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>241000000</v>
-      </c>
-      <c r="L27">
-        <v>203000000</v>
       </c>
       <c r="M27">
         <v>203000000</v>
       </c>
       <c r="N27">
+        <v>203000000</v>
+      </c>
+      <c r="O27">
         <v>150000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>174000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>247000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-44000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>163000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>162000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>177000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>245000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>170000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>146000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>168000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-227000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>131000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>70000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>132000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>148000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>138000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>132000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>9000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>86000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>123000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>101000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>103000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>141000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>113000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>88000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>42000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>0.4885</v>
+      </c>
+      <c r="C28">
         <v>0.5985</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.6237</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.5716</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.5167</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.5725</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.6927</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.6031</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.4555</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.536</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.4895</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.4104</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.4118</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.3043</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.3503</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.498</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-0.0868</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.3308</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.3258</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.3535</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.4901</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.3399</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.2942</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.3364</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-0.459</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.2637</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.1414</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.2678</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.2967</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.2756</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.2608</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.0178</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.1705</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.2432</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.1988</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.2024</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.2808</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.2251</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.1763</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.08450000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>0.4829</v>
+      </c>
+      <c r="C29">
         <v>0.5923</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.6182</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.5639999999999999</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.5086000000000001</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.5641</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.6829</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.5945</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.4485</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.5254</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.4837</v>
-      </c>
-      <c r="L29">
-        <v>0.4057</v>
       </c>
       <c r="M29">
         <v>0.4057</v>
       </c>
       <c r="N29">
+        <v>0.4057</v>
+      </c>
+      <c r="O29">
         <v>0.2993</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.3472</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.4929</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-0.0861</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.3248</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.3226</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.3491</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.4818</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.3333</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.2888</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.3289</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-0.4484</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.2576</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.1387</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.2613</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.2897</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.2683</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.2556</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.0174</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.166</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.2368</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.1952</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.1977</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.2736</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.2189</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.1724</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.0825</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.4885</v>
+      </c>
+      <c r="C30">
         <v>0.5985</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.6237</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.5716</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.5167</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.5725</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.6927</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.6031</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.4555</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.536</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.4895</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.4104</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.4118</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.3043</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.3503</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.498</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-0.0868</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.3308</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.3258</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.3535</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.4901</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.3399</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.2942</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.3364</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-0.459</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.2637</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.1414</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.2678</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.2967</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.2756</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.2608</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.0178</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.1705</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.2432</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.1988</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.2024</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.2809</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.2251</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.1763</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.08450000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>0.4829</v>
+      </c>
+      <c r="C31">
         <v>0.5923</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.6182</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.5639999999999999</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.5086000000000001</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.5641</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.6829</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.5945</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.4485</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.5254</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.4837</v>
-      </c>
-      <c r="L31">
-        <v>0.4057</v>
       </c>
       <c r="M31">
         <v>0.4057</v>
       </c>
       <c r="N31">
+        <v>0.4057</v>
+      </c>
+      <c r="O31">
         <v>0.2993</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.3472</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.4929</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-0.0861</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.3248</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.3226</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.3491</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.4818</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.3333</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.2888</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.3289</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-0.4484</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.2576</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.1387</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.2613</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.2897</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.2683</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.2556</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.0174</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.166</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.2368</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.1952</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.1977</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.2736</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.2189</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.1724</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.0825</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>496300000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>496500000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>501600000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>509100000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>510600000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>499200000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>501300000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>501900000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>502500000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>498300000</v>
-      </c>
-      <c r="L32">
-        <v>500400000</v>
       </c>
       <c r="M32">
         <v>500400000</v>
       </c>
       <c r="N32">
-        <v>501000000</v>
+        <v>500400000</v>
       </c>
       <c r="O32">
         <v>501000000</v>
@@ -4098,319 +4290,328 @@
         <v>501000000</v>
       </c>
       <c r="Q32">
+        <v>501000000</v>
+      </c>
+      <c r="R32">
         <v>493500000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>501900000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>502200000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>507000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>509100000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>510000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>505500000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>510600000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>497400000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>508500000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>495000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>505200000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>506700000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>514500000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>516300000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>518100000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>517500000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>519600000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>517500000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>521100000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>519300000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>516300000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>510300000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>509100000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.2961</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.3073</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3075</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.2899</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.311</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.3144</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.2592</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.2539</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.2668</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.2611</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.2387</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.2891</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.2491</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.2865</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.3109</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.2564</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.3102</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.3135</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.2832</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.2833</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.3212</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.2907</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.3003</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.2621</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.3003</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.2397</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.284</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.3241</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.3054</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.3098</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.0711</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.2231</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.2958</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.2601</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.2439</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.3196</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.2919</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.2297</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.1573</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.149</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.2416</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.3941</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2619</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.171</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.0517</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.2386</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.2977</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.0028</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.3155</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.2809</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.3192</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.0922</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.1753</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.3244</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.3172</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.0145</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.2717</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.3258</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.2941</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0984</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.2716</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.2518</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.2919</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.0678</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.194</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.2818</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.2941</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.07580000000000001</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.2169</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.2692</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.2448</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.0293</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.2312</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.2038</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.2795</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.1019</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.1302</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.2003</v>
       </c>
     </row>
